--- a/gatte-1.xlsx
+++ b/gatte-1.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11655" windowHeight="12600"/>
+    <workbookView windowWidth="11895" windowHeight="13185" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-29" sheetId="36" r:id="rId1"/>
-    <sheet name="template" sheetId="35" r:id="rId2"/>
+    <sheet name="2023-02-06" sheetId="37" r:id="rId2"/>
+    <sheet name="2023-02-13" sheetId="38" r:id="rId3"/>
+    <sheet name="2023-02-20" sheetId="39" r:id="rId4"/>
+    <sheet name="template" sheetId="35" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
   <si>
     <t>起始</t>
   </si>
@@ -38,7 +41,103 @@
     <t>timeline</t>
   </si>
   <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>vscode-background</t>
+  </si>
+  <si>
+    <t>barometer-fusion-system</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>barometer-c-code</t>
+  </si>
+  <si>
+    <t>barometer-fusion-code</t>
+  </si>
+  <si>
+    <t>SmartHome-info</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>filter-code</t>
+  </si>
+  <si>
+    <t>fusion-logical-code</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>python-dataanalysis-learn</t>
+  </si>
+  <si>
     <t>TimeVisual-Code</t>
+  </si>
+  <si>
+    <t>house-info</t>
+  </si>
+  <si>
+    <t>早会</t>
+  </si>
+  <si>
+    <t>state-logic-analysis</t>
+  </si>
+  <si>
+    <t>data-gather-code</t>
+  </si>
+  <si>
+    <t>data-gather</t>
+  </si>
+  <si>
+    <t>data-gather-data</t>
+  </si>
+  <si>
+    <t>scrapy-framework-learn</t>
+  </si>
+  <si>
+    <t>MEMS-doc</t>
+  </si>
+  <si>
+    <t>sensor-analysis</t>
+  </si>
+  <si>
+    <t>map-api</t>
+  </si>
+  <si>
+    <t>sensor-analysis-code</t>
+  </si>
+  <si>
+    <t>state-logic-code</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>开会</t>
+  </si>
+  <si>
+    <t>scrapy-selector-learn</t>
+  </si>
+  <si>
+    <t>培训</t>
+  </si>
+  <si>
+    <t>spider-code</t>
+  </si>
+  <si>
+    <t>《Learning Scrapy》</t>
+  </si>
+  <si>
+    <t>in-outdoor-paper</t>
+  </si>
+  <si>
+    <t>data-mining</t>
   </si>
 </sst>
 </file>
@@ -61,18 +160,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
       <name val="黑体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -681,7 +780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,25 +788,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -723,9 +819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1049,11 +1142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -1065,285 +1158,555 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>44955.4500810185</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>44955.4737152778</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16">
-        <f>INT(ABS(B2-A2)*1440)</f>
+      <c r="D2" s="14">
+        <f t="shared" ref="D2:D34" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>34</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>44955.5954513889</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>44955.6459259259</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16">
-        <f>INT(ABS(B3-A3)*1440)</f>
+      <c r="D3" s="14">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>44955.6602893519</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>44955.6869907407</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16">
-        <f>INT(ABS(B4-A4)*1440)</f>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="13">
+        <v>44956.3802546296</v>
+      </c>
+      <c r="B5" s="13">
+        <v>44956.4080324074</v>
+      </c>
+      <c r="C5" s="14">
+        <v>78</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="13">
+        <v>44956.4136921296</v>
+      </c>
+      <c r="B6" s="13">
+        <v>44956.4582175926</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="13">
+        <v>44956.5741435185</v>
+      </c>
+      <c r="B7" s="13">
+        <v>44956.5824652778</v>
+      </c>
+      <c r="C7" s="14">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="A8" s="13">
+        <v>44956.596875</v>
+      </c>
+      <c r="B8" s="13">
+        <v>44956.6300231482</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="13">
+        <v>44956.6395833333</v>
+      </c>
+      <c r="B9" s="13">
+        <v>44956.6653587963</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="A10" s="13">
+        <v>44956.6704166667</v>
+      </c>
+      <c r="B10" s="13">
+        <v>44956.6838773148</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="A11" s="13">
+        <v>44957.3997916667</v>
+      </c>
+      <c r="B11" s="13">
+        <v>44957.4169791667</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="A12" s="13">
+        <v>44957.4203703704</v>
+      </c>
+      <c r="B12" s="13">
+        <v>44957.4576967593</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13">
+        <v>44957.465462963</v>
+      </c>
+      <c r="B13" s="13">
+        <v>44957.4795138889</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13">
+        <v>44957.5978587963</v>
+      </c>
+      <c r="B14" s="13">
+        <v>44957.6312962963</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13">
+        <v>44957.6356365741</v>
+      </c>
+      <c r="B15" s="13">
+        <v>44957.6724189815</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13">
+        <v>44957.6778472222</v>
+      </c>
+      <c r="B16" s="13">
+        <v>44957.7083680556</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13">
+        <v>44958.3860069444</v>
+      </c>
+      <c r="B17" s="13">
+        <v>44958.4107291667</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="13">
+        <v>44958.4156828704</v>
+      </c>
+      <c r="B18" s="13">
+        <v>44958.4599884259</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="13">
+        <v>44958.4656944444</v>
+      </c>
+      <c r="B19" s="13">
+        <v>44958.4761111111</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="13">
+        <v>44958.6186689815</v>
+      </c>
+      <c r="B20" s="13">
+        <v>44958.6501273148</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="13">
+        <v>44958.6570486111</v>
+      </c>
+      <c r="B21" s="13">
+        <v>44958.6967939815</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="13">
+        <v>44958.7045138889</v>
+      </c>
+      <c r="B22" s="13">
+        <v>44958.746875</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="13">
+        <v>44959.3962731482</v>
+      </c>
+      <c r="B23" s="13">
+        <v>44959.438125</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="13">
+        <v>44959.4457060185</v>
+      </c>
+      <c r="B24" s="13">
+        <v>44959.4734837963</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="13">
+        <v>44959.600150463</v>
+      </c>
+      <c r="B25" s="13">
+        <v>44959.6471296296</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="13">
+        <v>44959.6639583333</v>
+      </c>
+      <c r="B26" s="13">
+        <v>44959.6931481482</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="13">
+        <v>44959.6967708333</v>
+      </c>
+      <c r="B27" s="13">
+        <v>44959.7422337963</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="A28" s="13">
+        <v>44960.3900231481</v>
+      </c>
+      <c r="B28" s="13">
+        <v>44960.4115509259</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="A29" s="13">
+        <v>44960.4141782407</v>
+      </c>
+      <c r="B29" s="13">
+        <v>44960.4562962963</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="A30" s="13">
+        <v>44960.4631597222</v>
+      </c>
+      <c r="B30" s="13">
+        <v>44960.4794675926</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="14"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="13">
+        <v>44960.5940509259</v>
+      </c>
+      <c r="B31" s="13">
+        <v>44960.632349537</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="A32" s="13">
+        <v>44960.6395717593</v>
+      </c>
+      <c r="B32" s="13">
+        <v>44960.6732523148</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="E32" s="1"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="A33" s="13">
+        <v>44960.6812962963</v>
+      </c>
+      <c r="B33" s="13">
+        <v>44960.7061342593</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="14"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
+      <c r="A34" s="13">
+        <v>44960.7219907407</v>
+      </c>
+      <c r="B34" s="13">
+        <v>44960.7471759259</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="3:5">
@@ -1636,7 +1999,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8a836be3-ebc7-4586-8f2b-585f04dc6c4f}</x14:id>
+          <x14:id>{45ba7b39-4eec-400f-b9e8-53bbec1e5f1e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1648,7 +2011,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8a836be3-ebc7-4586-8f2b-585f04dc6c4f}">
+          <x14:cfRule type="dataBar" id="{45ba7b39-4eec-400f-b9e8-53bbec1e5f1e}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1668,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet41"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -1684,400 +2047,794 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="8">
-        <v>44452.3722222222</v>
-      </c>
-      <c r="B2" s="8">
-        <v>44452.3888888889</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9">
-        <f>INT(ABS(B2-A2)*1440)</f>
+      <c r="A2" s="3">
+        <v>44963.3892939815</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44963.4200231481</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D31" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>44</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44963.4249537037</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44963.4306712963</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44963.438275463</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44963.4558912037</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44963.4638541667</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44963.4843402778</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44963.6016550926</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44963.6304513889</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44963.6306481482</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44963.6636921296</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44963.6676736111</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44963.6932986111</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44963.705474537</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44963.7414814815</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44964.6154513889</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44964.65125</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44964.6615162037</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44964.7033564815</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44964.7115972222</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44964.7485069444</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44965.388599537</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44965.4196990741</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44965.4231944444</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44965.4763194444</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44965.5933796296</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44965.6349537037</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>44965.6504398148</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44965.6715393519</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>44965.6813657407</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44965.7096412037</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>44965.7252314815</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44965.7484606481</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>44966.3802083333</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44966.3971643519</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>44966.4013310185</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44966.4558333333</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>44966.4661805556</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44966.4759027778</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>44966.5113773148</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44966.5257986111</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>44966.5728472222</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44966.6063078704</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>44966.6122916667</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44966.6540162037</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>44966.6616087963</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44966.6935648148</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>44966.7045023148</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44966.7418865741</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>44967.4222222222</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44967.4287384259</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>44967.4297453704</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44967.4762731481</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>44967.5200810185</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44967.5371527778</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>44967.595</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44967.6725462963</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>44967.6782291667</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44967.6924305556</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" s="2" customFormat="1" customHeight="1" spans="3:5">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" s="2" customFormat="1" customHeight="1" spans="3:5">
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" s="2" customFormat="1" customHeight="1" spans="3:5">
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" s="2" customFormat="1" customHeight="1" spans="3:5">
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" s="2" customFormat="1" customHeight="1" spans="3:5">
@@ -2165,7 +2922,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b70b1acd-3e07-4c0f-8070-7ade24a0cd4e}</x14:id>
+          <x14:id>{515a7d0c-3989-49d4-8e19-aaed22ddcd6b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2177,7 +2934,2587 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b70b1acd-3e07-4c0f-8070-7ade24a0cd4e}">
+          <x14:cfRule type="dataBar" id="{515a7d0c-3989-49d4-8e19-aaed22ddcd6b}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44971.3990277778</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44971.4110763889</v>
+      </c>
+      <c r="C2" s="4">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D15" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>17</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44971.4147569444</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44971.4457986111</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44971.4499537037</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44971.4731481482</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44971.602974537</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44971.6323032407</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44971.6397337963</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44971.6940393519</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44971.7386689815</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44971.7490972222</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44971.8884259259</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44971.9404513889</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44972.3792592593</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44972.4413194444</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44972.4583796296</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44972.4736574074</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44972.6009259259</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44972.6354976852</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44972.643900463</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44972.6711574074</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44972.6762731482</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44972.7126851852</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44972.7190972222</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44972.7283680556</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44972.7284375</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44972.7381018518</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{b24aab9a-c3cb-49de-8b5b-a3493b51242e}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{b24aab9a-c3cb-49de-8b5b-a3493b51242e}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44977.3835532407</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44977.4242939815</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D28" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>58</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44977.4368981481</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44977.4760300926</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44977.6021759259</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44977.6648032407</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44977.6667592593</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44977.6889930556</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44977.6890740741</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44977.734375</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44977.7393402778</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44977.7652083333</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44978.4294560185</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44978.4760532407</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44978.5146064815</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44978.5437037037</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44978.5836111111</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44978.627650463</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44978.6283912037</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44978.6388773148</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44978.6435416667</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44978.6774189815</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44978.6775</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44978.6924421296</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44978.7018402778</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44978.7362615741</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44979.3809837963</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44979.406875</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>44979.4123726852</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44979.4503009259</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>44979.4550115741</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44979.4763425926</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>44979.5181365741</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44979.5301388889</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>44979.5990972222</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44979.6325115741</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>44979.6372453704</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44979.6701851852</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>44979.6742708333</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44979.7289351852</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>44979.743287037</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44979.7552893519</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>44980.3803703704</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44980.4287615741</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>44980.437650463</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44980.4776041667</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>44980.5034375</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44980.5083101852</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>44980.5996527778</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44980.6239351852</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>44980.628587963</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44980.6667361111</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>44980.6971064815</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44980.7172569444</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>44980.7251388889</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44980.7535648148</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="4">
+        <f>INT(ABS(B29-A29)*1440)</f>
+        <v>40</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>44980.8827430556</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44980.9446990741</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="4">
+        <f>INT(ABS(B30-A30)*1440)</f>
+        <v>89</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>44981.3813310185</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44981.410625</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="4">
+        <f>INT(ABS(B31-A31)*1440)</f>
+        <v>42</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3">
+        <v>44981.4111458333</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44981.4351157407</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4">
+        <f>INT(ABS(B32-A32)*1440)</f>
+        <v>34</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3">
+        <v>44981.4409722222</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44981.4543634259</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4">
+        <f>INT(ABS(B33-A33)*1440)</f>
+        <v>19</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3">
+        <v>44981.4596643519</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44981.4741319444</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="4">
+        <f>INT(ABS(B34-A34)*1440)</f>
+        <v>20</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3">
+        <v>44981.5143634259</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44981.5428240741</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="4">
+        <f>INT(ABS(B35-A35)*1440)</f>
+        <v>40</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3">
+        <v>44981.6046643518</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44981.6461111111</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="4">
+        <f>INT(ABS(B36-A36)*1440)</f>
+        <v>59</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3">
+        <v>44981.6531365741</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44981.6857407407</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="4">
+        <f>INT(ABS(B37-A37)*1440)</f>
+        <v>46</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3">
+        <v>44981.694849537</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44981.7013194444</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="4">
+        <f>INT(ABS(B38-A38)*1440)</f>
+        <v>9</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3">
+        <v>44981.701400463</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44981.7333217593</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4">
+        <f>INT(ABS(B39-A39)*1440)</f>
+        <v>45</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{fbb25dfd-6351-425a-8046-48484e6ed45d}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{fbb25dfd-6351-425a-8046-48484e6ed45d}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="Sheet41"/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44452.3722222222</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44452.3888888889</v>
+      </c>
+      <c r="D2" s="4">
+        <f>INT(ABS(B2-A2)*1440)</f>
+        <v>24</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6af2d2e5-c6d4-4def-8e46-d2cfc5d54bdc}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6af2d2e5-c6d4-4def-8e46-d2cfc5d54bdc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/gatte-1.xlsx
+++ b/gatte-1.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="11895" windowHeight="13185" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="11895" windowHeight="13230" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-29" sheetId="36" r:id="rId1"/>
     <sheet name="2023-02-06" sheetId="37" r:id="rId2"/>
     <sheet name="2023-02-13" sheetId="38" r:id="rId3"/>
     <sheet name="2023-02-20" sheetId="39" r:id="rId4"/>
-    <sheet name="template" sheetId="35" r:id="rId5"/>
+    <sheet name="2023-02-27" sheetId="40" r:id="rId5"/>
+    <sheet name="2023-03-06" sheetId="41" r:id="rId6"/>
+    <sheet name="2023-03-13" sheetId="42" r:id="rId7"/>
+    <sheet name="template" sheetId="35" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="57">
   <si>
     <t>起始</t>
   </si>
@@ -138,6 +141,57 @@
   </si>
   <si>
     <t>data-mining</t>
+  </si>
+  <si>
+    <t>数据处理</t>
+  </si>
+  <si>
+    <t>《利用 Python 进行数据分析》</t>
+  </si>
+  <si>
+    <t>data-geoinfo-code</t>
+  </si>
+  <si>
+    <t>《learning scrapy》-code</t>
+  </si>
+  <si>
+    <t>《learning scrapy》</t>
+  </si>
+  <si>
+    <t>data-mining-code</t>
+  </si>
+  <si>
+    <t>in-outdoor-code</t>
+  </si>
+  <si>
+    <t>scrapy-code</t>
+  </si>
+  <si>
+    <t>weather-bed-info</t>
+  </si>
+  <si>
+    <t>HMM</t>
+  </si>
+  <si>
+    <t>《Python数据分析与挖掘实战》</t>
+  </si>
+  <si>
+    <t>fusion-system</t>
+  </si>
+  <si>
+    <t>e-paper</t>
+  </si>
+  <si>
+    <t>HMM-Viterbi</t>
+  </si>
+  <si>
+    <t>Python科学计算-numpy</t>
+  </si>
+  <si>
+    <t>data-handle</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
 </sst>
 </file>
@@ -1999,7 +2053,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{45ba7b39-4eec-400f-b9e8-53bbec1e5f1e}</x14:id>
+          <x14:id>{9efaf1d5-5850-4305-ba66-904d5fbb060a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2011,7 +2065,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{45ba7b39-4eec-400f-b9e8-53bbec1e5f1e}">
+          <x14:cfRule type="dataBar" id="{9efaf1d5-5850-4305-ba66-904d5fbb060a}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2922,7 +2976,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{515a7d0c-3989-49d4-8e19-aaed22ddcd6b}</x14:id>
+          <x14:id>{0da9b903-c0da-4a0f-8161-e7da6778b5b9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2934,7 +2988,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{515a7d0c-3989-49d4-8e19-aaed22ddcd6b}">
+          <x14:cfRule type="dataBar" id="{0da9b903-c0da-4a0f-8161-e7da6778b5b9}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3752,7 +3806,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b24aab9a-c3cb-49de-8b5b-a3493b51242e}</x14:id>
+          <x14:id>{bee3270c-0687-4704-a75b-dc07c2562fb5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3764,7 +3818,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b24aab9a-c3cb-49de-8b5b-a3493b51242e}">
+          <x14:cfRule type="dataBar" id="{bee3270c-0687-4704-a75b-dc07c2562fb5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3787,8 +3841,8 @@
   <sheetPr/>
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -3827,7 +3881,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="4">
-        <f t="shared" ref="D2:D28" si="0">INT(ABS(B2-A2)*1440)</f>
+        <f t="shared" ref="D2:D39" si="0">INT(ABS(B2-A2)*1440)</f>
         <v>58</v>
       </c>
       <c r="E2" s="4"/>
@@ -4252,7 +4306,7 @@
         <v>36</v>
       </c>
       <c r="D29" s="4">
-        <f>INT(ABS(B29-A29)*1440)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E29" s="1"/>
@@ -4268,7 +4322,7 @@
         <v>36</v>
       </c>
       <c r="D30" s="4">
-        <f>INT(ABS(B30-A30)*1440)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="E30" s="1"/>
@@ -4284,7 +4338,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="4">
-        <f>INT(ABS(B31-A31)*1440)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E31" s="1"/>
@@ -4300,7 +4354,7 @@
         <v>37</v>
       </c>
       <c r="D32" s="4">
-        <f>INT(ABS(B32-A32)*1440)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E32" s="1"/>
@@ -4316,7 +4370,7 @@
         <v>38</v>
       </c>
       <c r="D33" s="4">
-        <f>INT(ABS(B33-A33)*1440)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E33" s="1"/>
@@ -4332,7 +4386,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="4">
-        <f>INT(ABS(B34-A34)*1440)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E34" s="1"/>
@@ -4348,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="4">
-        <f>INT(ABS(B35-A35)*1440)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="E35" s="1"/>
@@ -4364,7 +4418,7 @@
         <v>38</v>
       </c>
       <c r="D36" s="4">
-        <f>INT(ABS(B36-A36)*1440)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="E36" s="1"/>
@@ -4380,7 +4434,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="4">
-        <f>INT(ABS(B37-A37)*1440)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E37" s="1"/>
@@ -4396,7 +4450,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="4">
-        <f>INT(ABS(B38-A38)*1440)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="E38" s="1"/>
@@ -4412,7 +4466,7 @@
         <v>39</v>
       </c>
       <c r="D39" s="4">
-        <f>INT(ABS(B39-A39)*1440)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E39" s="1"/>
@@ -4798,7 +4852,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fbb25dfd-6351-425a-8046-48484e6ed45d}</x14:id>
+          <x14:id>{110f3bad-21bf-4b08-bc12-8db76ef76808}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4810,7 +4864,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fbb25dfd-6351-425a-8046-48484e6ed45d}">
+          <x14:cfRule type="dataBar" id="{110f3bad-21bf-4b08-bc12-8db76ef76808}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4830,6 +4884,3038 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44984.4009375</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44984.4166666667</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D41" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>22</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44984.4167361111</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44984.4459490741</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44984.4502546296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44984.4738425926</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44984.5988194444</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44984.63625</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44984.6452199074</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44984.6840625</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44984.6937847222</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44984.7416782407</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44985.3795601852</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44985.4058912037</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44985.4148958333</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44985.4573726852</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44985.4628819444</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44985.4767708333</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44985.5973148148</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44985.6355671296</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44985.6415972222</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44985.6889930556</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44985.7098148148</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44985.747974537</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44985.8534143519</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44985.8885532407</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44986.3338888889</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44986.3534027778</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>44986.3766435185</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44986.4141898148</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>44986.4257291667</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44986.4448726852</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>44986.4567824074</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44986.4912731481</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>44986.5164814815</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44986.5280555556</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>44986.6005787037</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44986.645775463</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>44986.6517361111</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44986.6772800926</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>44986.6883217593</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44986.7171064815</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>44986.7260300926</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44986.7400810185</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>44987.3149537037</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44987.3372800926</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>44987.3592013889</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44987.372974537</v>
+      </c>
+      <c r="C25" s="4">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>44987.3785416667</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44987.4258912037</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>44987.4259837963</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44987.4368055556</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>44987.4368634259</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44987.4611342593</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>44987.4648032407</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44987.4879282407</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>44987.5174421296</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44987.5258217593</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>44987.5986805556</v>
+      </c>
+      <c r="B31" s="3">
+        <v>44987.6264236111</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3">
+        <v>44987.6298958333</v>
+      </c>
+      <c r="B32" s="3">
+        <v>44987.6738194444</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3">
+        <v>44987.6773611111</v>
+      </c>
+      <c r="B33" s="3">
+        <v>44987.7064814815</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3">
+        <v>44987.7128819444</v>
+      </c>
+      <c r="B34" s="3">
+        <v>44987.7291782407</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3">
+        <v>44987.7336689815</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44987.7512847222</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3">
+        <v>44988.3592708333</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44988.3840277778</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3">
+        <v>44988.3890277778</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44988.428587963</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3">
+        <v>44988.4391319444</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44988.4866319444</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3">
+        <v>44988.6040972222</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44988.6441203704</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="4">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3">
+        <v>44988.6516898148</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44988.6878472222</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3">
+        <v>44988.6895486111</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44988.7284606481</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{51a5438b-87dc-41fc-bce6-2efbb7efb6b2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{51a5438b-87dc-41fc-bce6-2efbb7efb6b2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44991.3754513889</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44991.4024074074</v>
+      </c>
+      <c r="C2" s="4">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D30" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>38</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44991.4408564815</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44991.4697685185</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44991.4753240741</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44991.488287037</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44991.6096527778</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44991.6303356482</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44991.6372222222</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44991.6705092593</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44991.6751157407</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44991.7130208333</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44991.7260648148</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44991.7441203704</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44992.3536805556</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44992.3681597222</v>
+      </c>
+      <c r="C9" s="4">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44992.3830324074</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44992.4152083333</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44992.4229050926</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44992.4650231482</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44992.4704976852</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44992.4886921296</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44992.5960069444</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44992.647974537</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44992.6606018519</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44992.6872337963</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44992.691400463</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44992.7375</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>44993.3209143519</v>
+      </c>
+      <c r="B16" s="3">
+        <v>44993.3369675926</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>44993.3725462963</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44993.4073611111</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>44993.4106944444</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44993.434837963</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>44993.435775463</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44993.4484143518</v>
+      </c>
+      <c r="C19" s="4">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>44993.4522337963</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44993.4871180556</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>44993.6091782407</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44993.6387731481</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>44993.6453240741</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44993.6836226852</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>44993.6872800926</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44993.718587963</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>44994.3537615741</v>
+      </c>
+      <c r="B24" s="3">
+        <v>44994.4071990741</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>44994.411099537</v>
+      </c>
+      <c r="B25" s="3">
+        <v>44994.4477546296</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>44994.4569328704</v>
+      </c>
+      <c r="B26" s="3">
+        <v>44994.4871412037</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>44994.5965625</v>
+      </c>
+      <c r="B27" s="3">
+        <v>44994.6183796296</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>44994.6220138889</v>
+      </c>
+      <c r="B28" s="3">
+        <v>44994.6640277778</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>44994.6676273148</v>
+      </c>
+      <c r="B29" s="3">
+        <v>44994.6990277778</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>44994.7089814815</v>
+      </c>
+      <c r="B30" s="3">
+        <v>44994.7265046296</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>44998.4028240741</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{66c02ec0-3149-4fd7-a2d5-3589b4312c23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66c02ec0-3149-4fd7-a2d5-3589b4312c23}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="2" width="30.7083333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="51.6083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.7083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="3">
+        <v>44998.4033912037</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44998.4266550926</v>
+      </c>
+      <c r="C2" s="4">
+        <v>78</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:D26" si="0">INT(ABS(B2-A2)*1440)</f>
+        <v>33</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="3">
+        <v>44998.4266782407</v>
+      </c>
+      <c r="B3" s="3">
+        <v>44998.4428240741</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="3">
+        <v>44998.4428935185</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44998.4557638889</v>
+      </c>
+      <c r="C4" s="4">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>44998.4579050926</v>
+      </c>
+      <c r="B5" s="3">
+        <v>44998.4883912037</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>44998.6127546296</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44998.647349537</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>44998.653900463</v>
+      </c>
+      <c r="B7" s="3">
+        <v>44998.6784375</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="3">
+        <v>44998.6841203704</v>
+      </c>
+      <c r="B8" s="3">
+        <v>44998.7087731482</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>44998.7097106481</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44998.7279976852</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A10" s="3">
+        <v>44999.3976388889</v>
+      </c>
+      <c r="B10" s="3">
+        <v>44999.414375</v>
+      </c>
+      <c r="C10" s="4">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A11" s="3">
+        <v>44999.4201388889</v>
+      </c>
+      <c r="B11" s="3">
+        <v>44999.4572916667</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A12" s="3">
+        <v>44999.4656134259</v>
+      </c>
+      <c r="B12" s="3">
+        <v>44999.4835648148</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A13" s="3">
+        <v>44999.6070833333</v>
+      </c>
+      <c r="B13" s="3">
+        <v>44999.6515740741</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A14" s="3">
+        <v>44999.6558796296</v>
+      </c>
+      <c r="B14" s="3">
+        <v>44999.691087963</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A15" s="3">
+        <v>44999.6953009259</v>
+      </c>
+      <c r="B15" s="3">
+        <v>44999.7296527778</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A16" s="3">
+        <v>45000.3866666667</v>
+      </c>
+      <c r="B16" s="3">
+        <v>45000.4104166667</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A17" s="3">
+        <v>45000.4153703704</v>
+      </c>
+      <c r="B17" s="3">
+        <v>45000.4744097222</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A18" s="3">
+        <v>45000.6009375</v>
+      </c>
+      <c r="B18" s="3">
+        <v>45000.6401273148</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A19" s="3">
+        <v>45000.649375</v>
+      </c>
+      <c r="B19" s="3">
+        <v>45000.6822685185</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="3">
+        <v>45000.6877893519</v>
+      </c>
+      <c r="B20" s="3">
+        <v>45000.7347569444</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A21" s="3">
+        <v>45000.7361458333</v>
+      </c>
+      <c r="B21" s="3">
+        <v>45000.7526967593</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A22" s="3">
+        <v>45001.3898958333</v>
+      </c>
+      <c r="B22" s="3">
+        <v>45001.4388194444</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A23" s="3">
+        <v>45001.4553472222</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45001.4721990741</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A24" s="3">
+        <v>45001.5988425926</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45001.6275231481</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A25" s="3">
+        <v>45001.6346643519</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45001.6653703704</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A26" s="3">
+        <v>45001.6708449074</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45001.7093402778</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A27" s="3">
+        <v>45001.7156481482</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45001.7434259259</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4">
+        <f>INT(ABS(B27-A27)*1440)</f>
+        <v>39</v>
+      </c>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A28" s="3">
+        <v>45002.3766435185</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45002.4202546296</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="4">
+        <f>INT(ABS(B28-A28)*1440)</f>
+        <v>62</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A29" s="3">
+        <v>45002.4252314815</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45002.4660416667</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="4">
+        <f>INT(ABS(B29-A29)*1440)</f>
+        <v>58</v>
+      </c>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A30" s="3">
+        <v>45002.4697222222</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45002.4884722222</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="4">
+        <f>INT(ABS(B30-A30)*1440)</f>
+        <v>26</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A31" s="3">
+        <v>45002.5876157407</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45002.625150463</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <f>INT(ABS(B31-A31)*1440)</f>
+        <v>54</v>
+      </c>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A32" s="3">
+        <v>45002.6307175926</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45002.6673032407</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="4">
+        <f>INT(ABS(B32-A32)*1440)</f>
+        <v>52</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A33" s="3">
+        <v>45002.6712268519</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45002.7139236111</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="4">
+        <f>INT(ABS(B33-A33)*1440)</f>
+        <v>61</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A34" s="3">
+        <v>45002.720787037</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45002.7380324074</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="4">
+        <f>INT(ABS(B34-A34)*1440)</f>
+        <v>24</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" s="2" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D$1:D$1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6aaf63dc-78d3-4564-821c-e3956b38fdd7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6aaf63dc-78d3-4564-821c-e3956b38fdd7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D$1:D$1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet41"/>
   <dimension ref="A1:E92"/>
   <sheetViews>
@@ -5502,7 +8588,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6af2d2e5-c6d4-4def-8e46-d2cfc5d54bdc}</x14:id>
+          <x14:id>{47827cda-1d5b-4fac-9397-592125f075dc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5514,7 +8600,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6af2d2e5-c6d4-4def-8e46-d2cfc5d54bdc}">
+          <x14:cfRule type="dataBar" id="{47827cda-1d5b-4fac-9397-592125f075dc}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
